--- a/COVSCA/Adjacency_matrix_oldmen.xlsx
+++ b/COVSCA/Adjacency_matrix_oldmen.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0.195520137061439</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-0.180854997919969</v>
       </c>
       <c r="I6" t="n">
         <v>0.333691733279556</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.174918337523784</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>-0.262667981377776</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.180854997919969</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0.386139692785825</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.192153395150204</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.167664681960564</v>
       </c>
     </row>
     <row r="13">
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0.195520137061439</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.174918337523784</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.192153395150204</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-0.162793178746392</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-0.162793178746392</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.167664681960564</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
